--- a/medicine/Médecine vétérinaire/André_Rochon-Duvigneaud/André_Rochon-Duvigneaud.xlsx
+++ b/medicine/Médecine vétérinaire/André_Rochon-Duvigneaud/André_Rochon-Duvigneaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Rochon-Duvigneaud</t>
+          <t>André_Rochon-Duvigneaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Rochon-Duvigneaud, né André-Jean-François Rochon-Duvigneaud le 7 avril 1863 et mort le 24 novembre 1952, est un ophtalmologue, biologiste, naturaliste, zoologiste et vétérinaire français.
 André Rochon-Duvigneaud étudia la médecine d'abord à la faculté de médecine de Bordeaux, puis passa son doctorat en médecine à Paris avec la thèse "L'anatomie sous l'angle irido-cornéen humain".
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Rochon-Duvigneaud</t>
+          <t>André_Rochon-Duvigneaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Le syndrome Rochon-Duvigneaud</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut le premier à reconnaître le glaucome récessif avec buphtalmie chez le lapin de Nouvelle-Zélande, bien que dans l'ophtalmologie humaine, il est plus communément associé au syndrome résultant de l'effondrement traumatique de la fissure orbitaire supérieure qui porte son nom. En effet, André Rochon-Duvigneaud a laissé son nom à un syndrome, le Syndrome Rochon-Duvigneaud qu'il a décrit en 1896 est qui s'applique à des troubles neurologiques qui furent les premiers cas d'ophtalmoplégie post-traumatique. Ce syndrome est également dénommé "Syndrome de la fissure sphénoïdale" ou "Syndrome de la fissure orbitaire supérieure".  André Rochon-Duvigneaud décrivit, pour l'École ophtalmologique française, le syndrome de la fissure orbitaire supérieure (S.F.O.S.) chez 4 patients syphilitiques, dans un article "Quelques cas de paralysie de tous les nerfs orbitaires (ophthalmoplégie totale avec amaurosse en anesthésie dans le domaine de l’ophthalmique d’origine syphilitique). Archives d'ophthalmologie, Paris, 1896, 16: 746-760." paru dans la revue des Archives d'Ophtalmologie, 1896;16:746-8.
 </t>
